--- a/Worklog/Worklog Template.xlsx
+++ b/Worklog/Worklog Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deakin365-my.sharepoint.com/personal/chetan_arora_deakin_edu_au/Documents/01 chetan.arora/02 ADCR/17 SIT723-SIT724 Development/02 SIT723 n SIT724/02 SIT723 SIT724 Development Shared/03 OnTrack Tasks/03 SIT723 - T2 2021/02 Assessment Tasks/Resources/Template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phuon\Documents\Research Project\Worklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB20C2BE-5BD5-404E-BE11-708370671AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B91F45-D567-4732-AEBC-05703F538DBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32660" yWindow="1060" windowWidth="30960" windowHeight="16440" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>Student Name</t>
   </si>
@@ -104,6 +104,40 @@
   </si>
   <si>
     <t>Project Management</t>
+  </si>
+  <si>
+    <t>Phuong Dang</t>
+  </si>
+  <si>
+    <t>Sasan Adibi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P78-Data analytics and Deep Learning in better understanding of COVID-19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to the topic and where to go for the first couple of weeks. </t>
+  </si>
+  <si>
+    <t>Researching about my topic and finding papers relevant to it.</t>
+  </si>
+  <si>
+    <t>Searching for Dataset for Australia Covid-19</t>
+  </si>
+  <si>
+    <t>Searching, reading and summarising Forecast and prediction of COVID-19 using machine learning, https://www.ncbi.nlm.nih.gov/pmc/articles/PMC8138040/?fbclid=IwAR13lHWhWlmdLWpJkK4F-Anhv2cbsJ0l00TF8rzTO-Z-ZKVtNqLCKu-kx2A</t>
+  </si>
+  <si>
+    <t>Searching, reading and summarising Machine learning-based prediction of COVID-19 diagnosis based on symptoms, 
+https://www.nature.com/articles/s41746-020-00372-6?fbclid=IwAR2bqYBHjDzfc-QOi8tm8VYkQ6qXWVWEnotAK1H7pwNTwBUgrBdOc_tiIwg</t>
+  </si>
+  <si>
+    <t>Clearer understanding of the topic and what to do next in terms of my topic and situation</t>
+  </si>
+  <si>
+    <t>Ontrack Task</t>
+  </si>
+  <si>
+    <t>Completed p1.1 and p2.1</t>
   </si>
 </sst>
 </file>
@@ -166,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -179,6 +213,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,25 +537,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1"/>
-    <col min="7" max="7" width="68.83203125" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="28.625" customWidth="1"/>
+    <col min="7" max="7" width="68.875" customWidth="1"/>
+    <col min="8" max="8" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +579,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -562,6 +600,190 @@
       </c>
       <c r="G2" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44393</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44395</v>
+      </c>
+      <c r="E4">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44396</v>
+      </c>
+      <c r="E5">
+        <v>120</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44397</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44398</v>
+      </c>
+      <c r="E7">
+        <v>120</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44399</v>
+      </c>
+      <c r="E8">
+        <v>120</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44400</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44401</v>
+      </c>
+      <c r="E10">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -573,13 +795,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E432</xm:sqref>
+          <xm:sqref>E11:E432</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A18E5B6F-7CCC-C74F-9785-6997C435583D}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F1048576</xm:sqref>
+          <xm:sqref>F11:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -595,12 +817,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>10</v>
       </c>
@@ -608,7 +830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20</v>
       </c>
@@ -616,7 +838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30</v>
       </c>
@@ -624,7 +846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>40</v>
       </c>
@@ -632,7 +854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50</v>
       </c>
@@ -640,7 +862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>60</v>
       </c>
@@ -648,7 +870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>70</v>
       </c>
@@ -656,7 +878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>80</v>
       </c>
@@ -664,7 +886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>90</v>
       </c>
@@ -672,7 +894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>100</v>
       </c>
@@ -680,7 +902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>110</v>
       </c>
@@ -688,7 +910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>120</v>
       </c>
@@ -702,6 +924,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F91A6F9DB61C7A45BED08E943CE76CDB" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e8e7f53c33be68033672446c1e6efa23">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01b46ff2-420f-42c8-8583-78d94109e361" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cfdeac3786ae83719fa373dd0d32d08c" ns2:_="">
     <xsd:import namespace="01b46ff2-420f-42c8-8583-78d94109e361"/>
@@ -833,15 +1064,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -849,13 +1071,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FB1FFC3-B1E9-4426-A852-9D9BC12D3CD6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FB1FFC3-B1E9-4426-A852-9D9BC12D3CD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="01b46ff2-420f-42c8-8583-78d94109e361"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Worklog/Worklog Template.xlsx
+++ b/Worklog/Worklog Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phuon\Documents\Research Project\Worklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B91F45-D567-4732-AEBC-05703F538DBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D747452E-B9E6-42B4-BCDE-8C4355AE69CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>Student Name</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Completed p1.1 and p2.1</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Setting up GITHUB and Overleaf</t>
   </si>
 </sst>
 </file>
@@ -537,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -636,16 +642,16 @@
         <v>25</v>
       </c>
       <c r="D4" s="4">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="E4">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -659,10 +665,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="4">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="E5">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -682,16 +688,16 @@
         <v>25</v>
       </c>
       <c r="D6" s="4">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -705,19 +711,19 @@
         <v>25</v>
       </c>
       <c r="D7" s="4">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="E7">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -728,7 +734,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="4">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="E8">
         <v>120</v>
@@ -736,11 +742,11 @@
       <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -751,16 +757,16 @@
         <v>25</v>
       </c>
       <c r="D9" s="4">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E9">
+        <v>120</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -774,15 +780,38 @@
         <v>25</v>
       </c>
       <c r="D10" s="4">
+        <v>44400</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4">
         <v>44401</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>70</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>32</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -795,13 +824,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>E11:E432</xm:sqref>
+          <xm:sqref>E12:E433</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A18E5B6F-7CCC-C74F-9785-6997C435583D}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>F11:F1048576</xm:sqref>
+          <xm:sqref>F12:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -924,15 +953,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F91A6F9DB61C7A45BED08E943CE76CDB" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e8e7f53c33be68033672446c1e6efa23">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01b46ff2-420f-42c8-8583-78d94109e361" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cfdeac3786ae83719fa373dd0d32d08c" ns2:_="">
     <xsd:import namespace="01b46ff2-420f-42c8-8583-78d94109e361"/>
@@ -1064,6 +1084,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1071,14 +1100,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FB1FFC3-B1E9-4426-A852-9D9BC12D3CD6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1096,6 +1117,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
   <ds:schemaRefs>

--- a/Worklog/Worklog Template.xlsx
+++ b/Worklog/Worklog Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phuon\Documents\Research Project\Worklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D747452E-B9E6-42B4-BCDE-8C4355AE69CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71340B8-41A7-487B-B4C3-245834A473C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="40">
   <si>
     <t>Student Name</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>Setting up GITHUB and Overleaf</t>
+  </si>
+  <si>
+    <t>Reading papers and summarising and writing literature Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading papers and summarising </t>
+  </si>
+  <si>
+    <t>Literature Review draft review</t>
+  </si>
+  <si>
+    <t>Completed p3.1</t>
   </si>
 </sst>
 </file>
@@ -543,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -815,6 +827,288 @@
         <v>33</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="4">
+        <v>44402</v>
+      </c>
+      <c r="E12">
+        <v>120</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44402</v>
+      </c>
+      <c r="E13">
+        <v>120</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44403</v>
+      </c>
+      <c r="E14">
+        <v>120</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44403</v>
+      </c>
+      <c r="E15">
+        <v>120</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4">
+        <v>44404</v>
+      </c>
+      <c r="E16">
+        <v>120</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44404</v>
+      </c>
+      <c r="E17">
+        <v>120</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4">
+        <v>44405</v>
+      </c>
+      <c r="E18">
+        <v>120</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44405</v>
+      </c>
+      <c r="E19">
+        <v>120</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44406</v>
+      </c>
+      <c r="E20">
+        <v>120</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44406</v>
+      </c>
+      <c r="E21">
+        <v>120</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="4">
+        <v>44407</v>
+      </c>
+      <c r="E22">
+        <v>120</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44407</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -830,7 +1124,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>F12:F1048576</xm:sqref>
+          <xm:sqref>F14:F22 F24:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1085,18 +1379,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1118,18 +1412,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Worklog/Worklog Template.xlsx
+++ b/Worklog/Worklog Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phuon\Documents\Research Project\Worklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71340B8-41A7-487B-B4C3-245834A473C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E9728D-FB94-469F-A784-9A0F6F992E16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="44">
   <si>
     <t>Student Name</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>Completed p3.1</t>
+  </si>
+  <si>
+    <t>Researching about how to run LSTM and GRU models</t>
+  </si>
+  <si>
+    <t>Researching about how to run LSTM and GRU models quick test</t>
+  </si>
+  <si>
+    <t>Started writing methodology and research</t>
+  </si>
+  <si>
+    <t>Completed 5.1</t>
   </si>
 </sst>
 </file>
@@ -555,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -965,7 +977,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1104,10 +1116,412 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="4"/>
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="4">
+        <v>44408</v>
+      </c>
+      <c r="E24">
+        <v>120</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="4"/>
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="4">
+        <v>44408</v>
+      </c>
+      <c r="E25">
+        <v>120</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="4">
+        <v>44408</v>
+      </c>
+      <c r="E26">
+        <v>120</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="4">
+        <v>44408</v>
+      </c>
+      <c r="E27">
+        <v>120</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="4">
+        <v>44409</v>
+      </c>
+      <c r="E28">
+        <v>120</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="4">
+        <v>44409</v>
+      </c>
+      <c r="E29">
+        <v>120</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="4">
+        <v>44409</v>
+      </c>
+      <c r="E30">
+        <v>120</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="4">
+        <v>44409</v>
+      </c>
+      <c r="E31">
+        <v>120</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="4">
+        <v>44410</v>
+      </c>
+      <c r="E32">
+        <v>120</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="4">
+        <v>44411</v>
+      </c>
+      <c r="E33">
+        <v>120</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="4">
+        <v>44412</v>
+      </c>
+      <c r="E34">
+        <v>120</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="4">
+        <v>44413</v>
+      </c>
+      <c r="E35">
+        <v>120</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="4">
+        <v>44414</v>
+      </c>
+      <c r="E36">
+        <v>120</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="4">
+        <v>44418</v>
+      </c>
+      <c r="E37">
+        <v>120</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="4">
+        <v>44419</v>
+      </c>
+      <c r="E38">
+        <v>120</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="4">
+        <v>44420</v>
+      </c>
+      <c r="E39">
+        <v>120</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="4">
+        <v>44421</v>
+      </c>
+      <c r="E40">
+        <v>120</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="4">
+        <v>44422</v>
+      </c>
+      <c r="E41">
+        <v>120</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="4">
+        <v>44423</v>
+      </c>
+      <c r="E42">
+        <v>120</v>
+      </c>
+      <c r="F42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="4">
+        <v>44383</v>
+      </c>
+      <c r="E43">
+        <v>30</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="4">
+        <v>44390</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D45" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1118,13 +1532,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>E12:E433</xm:sqref>
+          <xm:sqref>E12:E42 E46:E433</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A18E5B6F-7CCC-C74F-9785-6997C435583D}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>F14:F22 F24:F1048576</xm:sqref>
+          <xm:sqref>F14:F22 F24:F25 F28:F29 F32:F39 F46:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1379,18 +1793,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1412,18 +1826,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Worklog/Worklog Template.xlsx
+++ b/Worklog/Worklog Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phuon\Documents\Research Project\Worklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E9728D-FB94-469F-A784-9A0F6F992E16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAD77FA-06A0-40A7-90B1-10A6D3FA227A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="68">
   <si>
     <t>Student Name</t>
   </si>
@@ -168,13 +168,85 @@
   </si>
   <si>
     <t>Completed 5.1</t>
+  </si>
+  <si>
+    <t>P78-Data analytics and Deep Learning in better understanding of COVID-20</t>
+  </si>
+  <si>
+    <t>P78-Data analytics and Deep Learning in better understanding of COVID-21</t>
+  </si>
+  <si>
+    <t>P78-Data analytics and Deep Learning in better understanding of COVID-22</t>
+  </si>
+  <si>
+    <t>P78-Data analytics and Deep Learning in better understanding of COVID-23</t>
+  </si>
+  <si>
+    <t>P78-Data analytics and Deep Learning in better understanding of COVID-24</t>
+  </si>
+  <si>
+    <t>P78-Data analytics and Deep Learning in better understanding of COVID-25</t>
+  </si>
+  <si>
+    <t>P78-Data analytics and Deep Learning in better understanding of COVID-26</t>
+  </si>
+  <si>
+    <t>P78-Data analytics and Deep Learning in better understanding of COVID-27</t>
+  </si>
+  <si>
+    <t>P78-Data analytics and Deep Learning in better understanding of COVID-28</t>
+  </si>
+  <si>
+    <t>P78-Data analytics and Deep Learning in better understanding of COVID-29</t>
+  </si>
+  <si>
+    <t>P78-Data analytics and Deep Learning in better understanding of COVID-30</t>
+  </si>
+  <si>
+    <t>P78-Data analytics and Deep Learning in better understanding of COVID-31</t>
+  </si>
+  <si>
+    <t>P78-Data analytics and Deep Learning in better understanding of COVID-32</t>
+  </si>
+  <si>
+    <t>P78-Data analytics and Deep Learning in better understanding of COVID-33</t>
+  </si>
+  <si>
+    <t>P78-Data analytics and Deep Learning in better understanding of COVID-34</t>
+  </si>
+  <si>
+    <t>P78-Data analytics and Deep Learning in better understanding of COVID-35</t>
+  </si>
+  <si>
+    <t>P78-Data analytics and Deep Learning in better understanding of COVID-36</t>
+  </si>
+  <si>
+    <t>P78-Data analytics and Deep Learning in better understanding of COVID-37</t>
+  </si>
+  <si>
+    <t>P78-Data analytics and Deep Learning in better understanding of COVID-38</t>
+  </si>
+  <si>
+    <t>P78-Data analytics and Deep Learning in better understanding of COVID-39</t>
+  </si>
+  <si>
+    <t>Going through my topic and where to go</t>
+  </si>
+  <si>
+    <t>Going through lit review and topic and what to change</t>
+  </si>
+  <si>
+    <t>Agreed that the literature review and topic is up to standard move onto next</t>
+  </si>
+  <si>
+    <t>Start building artefact and doing trail and error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -193,6 +265,12 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -567,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62:G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1300,6 +1378,12 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -1316,7 +1400,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
       <c r="C33" t="s">
         <v>25</v>
       </c>
@@ -1333,7 +1423,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
       <c r="C34" t="s">
         <v>25</v>
       </c>
@@ -1350,7 +1446,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
       <c r="C35" t="s">
         <v>25</v>
       </c>
@@ -1367,7 +1469,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
       <c r="C36" t="s">
         <v>25</v>
       </c>
@@ -1384,7 +1492,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -1401,7 +1515,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
       <c r="C38" t="s">
         <v>25</v>
       </c>
@@ -1418,7 +1538,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -1435,7 +1561,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
       <c r="C40" t="s">
         <v>25</v>
       </c>
@@ -1452,63 +1584,87 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D41" s="4">
+        <v>44421</v>
+      </c>
+      <c r="E41">
+        <v>30</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="4">
         <v>44422</v>
       </c>
-      <c r="E41">
-        <v>120</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="E42">
+        <v>120</v>
+      </c>
+      <c r="F42" t="s">
         <v>12</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="4">
         <v>44423</v>
       </c>
-      <c r="E42">
-        <v>120</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="E43">
+        <v>120</v>
+      </c>
+      <c r="F43" t="s">
         <v>32</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="4">
         <v>44383</v>
-      </c>
-      <c r="E43">
-        <v>30</v>
-      </c>
-      <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="4">
-        <v>44390</v>
       </c>
       <c r="E44">
         <v>30</v>
@@ -1520,10 +1676,649 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D45" s="4"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="4">
+        <v>44390</v>
+      </c>
+      <c r="E45">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="4">
+        <v>44423</v>
+      </c>
+      <c r="E46">
+        <v>120</v>
+      </c>
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="4">
+        <v>44424</v>
+      </c>
+      <c r="E47">
+        <v>120</v>
+      </c>
+      <c r="F47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="4">
+        <v>44425</v>
+      </c>
+      <c r="E48">
+        <v>120</v>
+      </c>
+      <c r="F48" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="4">
+        <v>44426</v>
+      </c>
+      <c r="E49">
+        <v>120</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="4">
+        <v>44427</v>
+      </c>
+      <c r="E50">
+        <v>120</v>
+      </c>
+      <c r="F50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="4">
+        <v>44427</v>
+      </c>
+      <c r="E51">
+        <v>120</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="4">
+        <v>44428</v>
+      </c>
+      <c r="E52">
+        <v>30</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="4">
+        <v>44429</v>
+      </c>
+      <c r="E53">
+        <v>120</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="4">
+        <v>44430</v>
+      </c>
+      <c r="E54">
+        <v>120</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="4">
+        <v>44431</v>
+      </c>
+      <c r="E55">
+        <v>120</v>
+      </c>
+      <c r="F55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="4">
+        <v>44432</v>
+      </c>
+      <c r="E56">
+        <v>120</v>
+      </c>
+      <c r="F56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="4">
+        <v>44433</v>
+      </c>
+      <c r="E57">
+        <v>120</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="4">
+        <v>44434</v>
+      </c>
+      <c r="E58">
+        <v>120</v>
+      </c>
+      <c r="F58" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="4">
+        <v>44435</v>
+      </c>
+      <c r="E59">
+        <v>30</v>
+      </c>
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="4">
+        <v>44436</v>
+      </c>
+      <c r="E60">
+        <v>120</v>
+      </c>
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="4">
+        <v>44437</v>
+      </c>
+      <c r="E61">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="4">
+        <v>44438</v>
+      </c>
+      <c r="E62">
+        <v>60</v>
+      </c>
+      <c r="F62" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="4">
+        <v>44439</v>
+      </c>
+      <c r="E63">
+        <v>60</v>
+      </c>
+      <c r="F63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="4">
+        <v>44440</v>
+      </c>
+      <c r="E64">
+        <v>60</v>
+      </c>
+      <c r="F64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" s="4">
+        <v>44441</v>
+      </c>
+      <c r="E65">
+        <v>60</v>
+      </c>
+      <c r="F65" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="4">
+        <v>44442</v>
+      </c>
+      <c r="E66">
+        <v>60</v>
+      </c>
+      <c r="F66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1532,13 +2327,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>E12:E42 E46:E433</xm:sqref>
+          <xm:sqref>E12:E43 E46:E435</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A18E5B6F-7CCC-C74F-9785-6997C435583D}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>F14:F22 F24:F25 F28:F29 F32:F39 F46:F1048576</xm:sqref>
+          <xm:sqref>F14:F22 F24:F25 F28:F29 F32:F39 F46:F51 F53:F58 F60:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1793,18 +2588,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1826,18 +2621,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Worklog/Worklog Template.xlsx
+++ b/Worklog/Worklog Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phuon\Documents\Research Project\Worklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAD77FA-06A0-40A7-90B1-10A6D3FA227A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C538B3FB-A29B-4109-BD91-3B4576DAC233}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="69">
   <si>
     <t>Student Name</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Start building artefact and doing trail and error</t>
+  </si>
+  <si>
+    <t>Continue building the artefact, testing hyperparameters and fixing errors.</t>
   </si>
 </sst>
 </file>
@@ -647,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62:G66"/>
+    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2183,31 +2186,211 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D67" s="4"/>
+      <c r="A67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="4">
+        <v>44443</v>
+      </c>
+      <c r="E67">
+        <v>120</v>
+      </c>
+      <c r="F67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D68" s="4"/>
+      <c r="A68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="4">
+        <v>44444</v>
+      </c>
+      <c r="E68">
+        <v>120</v>
+      </c>
+      <c r="F68" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D69" s="4"/>
+      <c r="A69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="4">
+        <v>44445</v>
+      </c>
+      <c r="E69">
+        <v>120</v>
+      </c>
+      <c r="F69" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D70" s="4"/>
+      <c r="A70" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" s="4">
+        <v>44446</v>
+      </c>
+      <c r="E70">
+        <v>120</v>
+      </c>
+      <c r="F70" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D71" s="4"/>
+      <c r="A71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="4">
+        <v>44447</v>
+      </c>
+      <c r="E71">
+        <v>120</v>
+      </c>
+      <c r="F71" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D72" s="4"/>
+      <c r="A72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" s="4">
+        <v>44448</v>
+      </c>
+      <c r="E72">
+        <v>120</v>
+      </c>
+      <c r="F72" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D73" s="4"/>
+      <c r="A73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" s="4">
+        <v>44449</v>
+      </c>
+      <c r="E73">
+        <v>120</v>
+      </c>
+      <c r="F73" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D74" s="4"/>
+      <c r="A74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" s="4">
+        <v>44450</v>
+      </c>
+      <c r="E74">
+        <v>120</v>
+      </c>
+      <c r="F74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D75" s="4"/>
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" s="4">
+        <v>44451</v>
+      </c>
+      <c r="E75">
+        <v>120</v>
+      </c>
+      <c r="F75" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D76" s="4"/>
@@ -2588,18 +2771,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2621,18 +2804,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Worklog/Worklog Template.xlsx
+++ b/Worklog/Worklog Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phuon\Documents\Research Project\Worklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C538B3FB-A29B-4109-BD91-3B4576DAC233}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5800A4C-069F-42A8-BCF9-4BA1561F32DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="70">
   <si>
     <t>Student Name</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>Continue building the artefact, testing hyperparameters and fixing errors.</t>
+  </si>
+  <si>
+    <t>Thesis writing for draft on Sunday</t>
   </si>
 </sst>
 </file>
@@ -650,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78:G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2393,66 +2396,226 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D76" s="4"/>
+      <c r="A76" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E76">
+        <v>120</v>
+      </c>
+      <c r="F76" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D77" s="4"/>
+      <c r="A77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" s="4">
+        <v>44453</v>
+      </c>
+      <c r="E77">
+        <v>120</v>
+      </c>
+      <c r="F77" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D78" s="4"/>
+      <c r="A78" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" s="4">
+        <v>44454</v>
+      </c>
+      <c r="E78">
+        <v>120</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D79" s="4"/>
+      <c r="A79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" s="4">
+        <v>44455</v>
+      </c>
+      <c r="E79">
+        <v>120</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" s="4">
+        <v>44456</v>
+      </c>
+      <c r="E80">
+        <v>120</v>
+      </c>
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" s="4">
+        <v>44457</v>
+      </c>
+      <c r="E81">
+        <v>120</v>
+      </c>
+      <c r="F81" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="4">
+        <v>44458</v>
+      </c>
+      <c r="E82">
+        <v>120</v>
+      </c>
+      <c r="F82" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" s="4">
+        <v>44459</v>
+      </c>
+      <c r="E83">
+        <v>120</v>
+      </c>
+      <c r="F83" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.25">
@@ -2771,18 +2934,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2804,18 +2967,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Worklog/Worklog Template.xlsx
+++ b/Worklog/Worklog Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phuon\Documents\Research Project\Worklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5800A4C-069F-42A8-BCF9-4BA1561F32DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39C8604-0DF4-4F7E-B222-6169AA29C2F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="71">
   <si>
     <t>Student Name</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Thesis writing for draft on Sunday</t>
+  </si>
+  <si>
+    <t>Working on my research project final draft and finishing off my ontrack task</t>
   </si>
 </sst>
 </file>
@@ -653,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78:G83"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="G104" sqref="A102:G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2580,87 +2583,407 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D84" s="4"/>
+      <c r="A84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" s="4">
+        <v>44460</v>
+      </c>
+      <c r="E84">
+        <v>120</v>
+      </c>
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D85" s="4"/>
+      <c r="A85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" s="4">
+        <v>44461</v>
+      </c>
+      <c r="E85">
+        <v>120</v>
+      </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D86" s="4"/>
+      <c r="A86" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" s="4">
+        <v>44462</v>
+      </c>
+      <c r="E86">
+        <v>120</v>
+      </c>
+      <c r="F86" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D87" s="4"/>
+      <c r="A87" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" s="4">
+        <v>44463</v>
+      </c>
+      <c r="E87">
+        <v>120</v>
+      </c>
+      <c r="F87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D88" s="4"/>
+      <c r="A88" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" s="4">
+        <v>44464</v>
+      </c>
+      <c r="E88">
+        <v>120</v>
+      </c>
+      <c r="F88" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D89" s="4"/>
+      <c r="A89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" s="4">
+        <v>44465</v>
+      </c>
+      <c r="E89">
+        <v>120</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D90" s="4"/>
+      <c r="A90" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" s="4">
+        <v>44466</v>
+      </c>
+      <c r="E90">
+        <v>120</v>
+      </c>
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D91" s="4"/>
+      <c r="A91" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" s="4">
+        <v>44467</v>
+      </c>
+      <c r="E91">
+        <v>120</v>
+      </c>
+      <c r="F91" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D92" s="4"/>
+      <c r="A92" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" s="4">
+        <v>44468</v>
+      </c>
+      <c r="E92">
+        <v>120</v>
+      </c>
+      <c r="F92" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D93" s="4"/>
+      <c r="A93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" s="4">
+        <v>44469</v>
+      </c>
+      <c r="E93">
+        <v>120</v>
+      </c>
+      <c r="F93" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D94" s="4"/>
+      <c r="A94" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" s="4">
+        <v>44470</v>
+      </c>
+      <c r="E94">
+        <v>120</v>
+      </c>
+      <c r="F94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D95" s="4"/>
+      <c r="A95" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" s="4">
+        <v>44471</v>
+      </c>
+      <c r="E95">
+        <v>120</v>
+      </c>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D98" s="4"/>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" s="4">
+        <v>44472</v>
+      </c>
+      <c r="E96">
+        <v>120</v>
+      </c>
+      <c r="F96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" s="4">
+        <v>44473</v>
+      </c>
+      <c r="E97">
+        <v>120</v>
+      </c>
+      <c r="F97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" s="4">
+        <v>44474</v>
+      </c>
+      <c r="E98">
+        <v>120</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" s="4">
+        <v>44475</v>
+      </c>
+      <c r="E99">
+        <v>120</v>
+      </c>
+      <c r="F99" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D111" s="4"/>
     </row>
   </sheetData>
@@ -2934,18 +3257,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2967,18 +3290,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>